--- a/Saucedemo Login page documenatation/Saucedemo Design Requirement-Login page.xlsx
+++ b/Saucedemo Login page documenatation/Saucedemo Design Requirement-Login page.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive - ahqb\Desktop\SeleniumTask\Saucedemo Login page documenatation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive - ahqb\Desktop\SeleniumAndSpecFlowTask\Saucedemo Login page documenatation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1B3E3-2DD5-4E9B-8397-BA628E08FBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36B6D5C-7165-4A24-8BF3-56D50B140D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Login screen shall have "Password for all users: secret_sauce" text.</t>
   </si>
   <si>
-    <t>Login screen("saucedemo") is displayed when application is started.</t>
+    <t>Login screen "saucedemo" is displayed when application is started.</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
